--- a/ММвЭ/ИД23-1_МасловАН_Семинар_2.xlsx
+++ b/ММвЭ/ИД23-1_МасловАН_Семинар_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\Рабочая папка\ITiABD\ММвЭ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF09C925-6961-4D26-A407-5750583BB85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E12ECBA-2A50-4F78-B9FF-395DD760F29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5A93A515-A732-4534-827D-3D36C6F4BF8F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Число работающих станков</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>ИД23-1</t>
+  </si>
+  <si>
+    <t>MRTS</t>
+  </si>
+  <si>
+    <t>Ответ:</t>
+  </si>
+  <si>
+    <t>При сокращении труда на 4 единицы необходимо увеличить капитал на 8 единиц</t>
+  </si>
+  <si>
+    <t>Задание 7</t>
+  </si>
+  <si>
+    <t>Задание 8</t>
   </si>
 </sst>
 </file>
@@ -169,8 +184,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1589,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E449CEC6-BEF2-4577-AEDA-248065D03E9F}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1618,60 +1633,60 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>7</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>15</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>23</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>30</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>36</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>42</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>46</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>48</v>
       </c>
     </row>
@@ -1757,7 +1772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>5</v>
       </c>
@@ -1773,7 +1788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1782,7 +1797,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
@@ -1796,7 +1811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>1</v>
       </c>
@@ -1811,7 +1826,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>2</v>
       </c>
@@ -1827,7 +1842,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>3</v>
       </c>
@@ -1843,7 +1858,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>4</v>
       </c>
@@ -1859,7 +1874,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>5</v>
       </c>
@@ -1875,160 +1890,255 @@
         <v>770</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="5" t="s">
+    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="4">
-        <v>1</v>
-      </c>
-      <c r="C48" s="4">
-        <v>4</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" s="4">
-        <v>7</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D49" s="4">
+        <v>4</v>
+      </c>
+      <c r="E49" s="4">
+        <f>C49/B49</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4">
+        <v>7</v>
+      </c>
+      <c r="D50" s="4">
+        <f>C50-C49</f>
         <v>3</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4">
-        <v>8</v>
-      </c>
-      <c r="E50" s="4"/>
+      <c r="E50" s="4">
+        <f>C50/B50</f>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
-        <v>4</v>
-      </c>
-      <c r="C51" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C51" s="4">
+        <f>D51+C50</f>
+        <v>15</v>
+      </c>
       <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="E51" s="4">
+        <f>C51/B51</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
+        <v>4</v>
+      </c>
+      <c r="C52" s="4">
+        <f>D52+C51</f>
+        <v>16</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <f>C52/B52</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
         <v>5</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4">
+      <c r="C53" s="4">
+        <f>E53*B53</f>
+        <v>16</v>
+      </c>
+      <c r="D53" s="4">
+        <f>C52-C53</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
         <v>3.2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B55" s="5" t="s">
+    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B56" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="4">
-        <v>1</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4">
-        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="4">
-        <v>22</v>
-      </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+        <f>B57*E57</f>
+        <v>10</v>
+      </c>
+      <c r="D57" s="4">
+        <f>C57</f>
+        <v>10</v>
+      </c>
+      <c r="E57" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" s="4">
-        <v>36</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="D58" s="4">
+        <f>C58-C57</f>
+        <v>12</v>
+      </c>
+      <c r="E58" s="4">
+        <f>C58/B58</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
-        <v>4</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C59" s="4">
+        <v>36</v>
+      </c>
+      <c r="D59" s="4">
+        <f>C59-C58</f>
+        <v>14</v>
+      </c>
       <c r="E59" s="4">
-        <v>11.5</v>
+        <f>C59/B59</f>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
+        <v>4</v>
+      </c>
+      <c r="C60" s="4">
+        <f>E60*B60</f>
+        <v>46</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" ref="D60:D62" si="0">C60-C59</f>
+        <v>10</v>
+      </c>
+      <c r="E60" s="4">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="4">
         <v>5</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C61" s="4">
         <v>55</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="6">
+      <c r="D61" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E61" s="4">
+        <f>C61/B61</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="4">
         <v>6</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C62" s="4">
         <v>63</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="D62" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E62" s="4">
+        <f>C62/B62</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C45:F45"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/ММвЭ/ИД23-1_МасловАН_Семинар_2.xlsx
+++ b/ММвЭ/ИД23-1_МасловАН_Семинар_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\Рабочая папка\ITiABD\ММвЭ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\OneDrive\Рабочий стол\ИТиАБД\ITiABD\ММвЭ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E12ECBA-2A50-4F78-B9FF-395DD760F29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838F584F-DF2B-41EB-8F34-54C6770079CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5A93A515-A732-4534-827D-3D36C6F4BF8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A93A515-A732-4534-827D-3D36C6F4BF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Число работающих станков</t>
   </si>
@@ -118,6 +118,69 @@
   </si>
   <si>
     <t>Задание 8</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Пусть:</t>
+  </si>
+  <si>
+    <t>Q=10KL</t>
+  </si>
+  <si>
+    <t>MPK</t>
+  </si>
+  <si>
+    <t>MPL</t>
+  </si>
+  <si>
+    <t>Q=5XY</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>10X + 4Y = 5000</t>
+  </si>
+  <si>
+    <t>Q = 5X * (1250 - 2.5X) = 6250X - 12,5X^2</t>
+  </si>
+  <si>
+    <t>Y = 1250 - 2,5X</t>
+  </si>
+  <si>
+    <t>dQ/dX = 6250 - 25X</t>
+  </si>
+  <si>
+    <t>X = 250</t>
+  </si>
+  <si>
+    <t>Y = 1250 -625 = 625</t>
+  </si>
+  <si>
+    <t>Проверяем:</t>
+  </si>
+  <si>
+    <t>10 * 250 + 4 * 625 = 5000</t>
+  </si>
+  <si>
+    <t>Y = 625</t>
+  </si>
+  <si>
+    <t>и</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -134,12 +197,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -169,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,6 +256,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1308,9 +1379,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1348,7 +1419,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1454,7 +1525,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1596,7 +1667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1604,22 +1675,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E449CEC6-BEF2-4577-AEDA-248065D03E9F}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1627,12 +1698,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1690,12 +1761,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
@@ -1709,7 +1780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>1</v>
       </c>
@@ -1724,7 +1795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>2</v>
       </c>
@@ -1740,7 +1811,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>3</v>
       </c>
@@ -1756,7 +1827,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>4</v>
       </c>
@@ -1772,7 +1843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>5</v>
       </c>
@@ -1788,7 +1859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1797,7 +1868,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
@@ -1811,7 +1882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>1</v>
       </c>
@@ -1826,7 +1897,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>2</v>
       </c>
@@ -1842,7 +1913,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>3</v>
       </c>
@@ -1858,7 +1929,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>4</v>
       </c>
@@ -1874,7 +1945,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>5</v>
       </c>
@@ -1890,7 +1961,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1901,7 +1972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>24</v>
       </c>
@@ -1912,12 +1983,12 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>15</v>
       </c>
@@ -1931,7 +2002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <v>1</v>
       </c>
@@ -1946,7 +2017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
         <v>2</v>
       </c>
@@ -1962,7 +2033,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
         <v>3</v>
       </c>
@@ -1978,7 +2049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
         <v>4</v>
       </c>
@@ -1994,7 +2065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <v>5</v>
       </c>
@@ -2010,12 +2081,12 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>20</v>
       </c>
@@ -2029,7 +2100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>1</v>
       </c>
@@ -2045,7 +2116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
         <v>2</v>
       </c>
@@ -2061,7 +2132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
         <v>3</v>
       </c>
@@ -2077,7 +2148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
         <v>4</v>
       </c>
@@ -2093,7 +2164,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
         <v>5</v>
       </c>
@@ -2109,7 +2180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
         <v>6</v>
       </c>
@@ -2125,19 +2196,161 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70">
+        <f>10*C66</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71">
+        <f>10*C67</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="7">
+        <f>-C71/C70</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>27</v>
       </c>
+      <c r="B76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="6"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="6"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="6"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="6"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
     <mergeCell ref="C45:F45"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B82:C82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
